--- a/public/doc/price-list.xlsx
+++ b/public/doc/price-list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>№ п/п</t>
   </si>
@@ -30,64 +30,13 @@
     <t>Наименование работ</t>
   </si>
   <si>
-    <t>- позиции сметы с 1-ой по 10-ую</t>
-  </si>
-  <si>
-    <t>- позиции сметы с 11-ой по 30-ую</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- позиции сметы, начиная с 31-ой </t>
-  </si>
-  <si>
     <t>(По желанию заказчика к смете бесплатно прилагается ведомость потребности в материальных и трудовых ресурсах, строительных машинах, составленная по нормам ГЭСН).</t>
   </si>
   <si>
-    <t>100 руб./поз.</t>
-  </si>
-  <si>
-    <t>50 руб./поз.</t>
-  </si>
-  <si>
-    <t>30 руб./поз.</t>
-  </si>
-  <si>
-    <t>250 руб./поз.</t>
-  </si>
-  <si>
-    <t>150 руб./поз.</t>
-  </si>
-  <si>
-    <t>Выезд на место в пределах г. Перми</t>
-  </si>
-  <si>
-    <t>500 руб.</t>
-  </si>
-  <si>
-    <t>Выезд на место за пределы г. Перми</t>
-  </si>
-  <si>
-    <t>Проведение обмерочных работ</t>
-  </si>
-  <si>
-    <t>500 руб./час</t>
-  </si>
-  <si>
     <t>Подсчет объемов работ и составление ведомости объемов работ (ВОР)</t>
   </si>
   <si>
     <t>договорная</t>
-  </si>
-  <si>
-    <t>300 руб.</t>
-  </si>
-  <si>
-    <t>Переделка сметы по замечаниям проверяющего во второй и последующие разы</t>
-  </si>
-  <si>
-    <t>Переделка актов КС-2 и КС-3 по замечаниям проверяющего</t>
-  </si>
-  <si>
-    <t>200 руб.</t>
   </si>
   <si>
     <t>Экспертиза сметной документации</t>
@@ -145,9 +94,6 @@
     </r>
   </si>
   <si>
-    <t>Списание материалов</t>
-  </si>
-  <si>
     <t>Сметное сопровождение строительства объекта</t>
   </si>
   <si>
@@ -157,18 +103,9 @@
     <t>1. Перечисленные выше расценки могут быть изменены в процессе переговоров;</t>
   </si>
   <si>
-    <t>2. Локальные сметы составляются с использованием Федеральной сметно-нормативной базы (ФЕР, ГЭСН -2001 в ред. 2014 г. с изм. 1,2) и Территориальной сметно-нормативной базы (ТЕР – 2001). По запросу возможно составление проектно-сметной документации в других базах.</t>
-  </si>
-  <si>
     <t>Составление объектных сметных расчетов (ОСР) и сводных сметных расчетов (ССР)</t>
   </si>
   <si>
-    <t>200 руб./расчет</t>
-  </si>
-  <si>
-    <t>3. Минимальная стоимость составления смет составляет 1000 руб – для базисно-индексного метода, 1500 руб – для ресурсного метода;</t>
-  </si>
-  <si>
     <t>4. Ведомость объемов работ (ВОР) должна быть понятной и легкочитаемой, иначе к расценкам на составление смет применяется повышающий коэффициент в пределах 1,2 – 1,5;</t>
   </si>
   <si>
@@ -181,9 +118,6 @@
     <t>6. Акт приемки выполненных работ по форме КС-2 на всю стоимость сметы составляется бесплатно (по желанию Заказчика к акту КС-2 прилагается отчет о расходе материалов по нормам ГЭСН), при закрытии части объемов работ – см. п. 7;</t>
   </si>
   <si>
-    <t>Составление актов приемки выполненных работ по форме КС-2 и КС-3 (если в КС-2 закрывается часть работ). По желанию Заказчика к акту КС-2 бесплатно прилагается отчет о расходе материалов по нормам ГЭСН.</t>
-  </si>
-  <si>
     <t>Анализ себестоимости строительного продукта</t>
   </si>
   <si>
@@ -194,12 +128,49 @@
   </si>
   <si>
     <t>8. Работа производится по договору оказания услуг и при обязательной предоплате.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> от 80 руб./поз.</t>
+  </si>
+  <si>
+    <t>от 500 руб.</t>
+  </si>
+  <si>
+    <t>от 500 руб./расчет</t>
+  </si>
+  <si>
+    <t>от 150 руб/поз.</t>
+  </si>
+  <si>
+    <t>Преобразование бумажной сметы в программу</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> от 50 руб/поз.</t>
+  </si>
+  <si>
+    <t>Удаленное сметное обслуживание организаций 
+(аутсорсинг)</t>
+  </si>
+  <si>
+    <t>Составление смет на проектно-изыскательские работы</t>
+  </si>
+  <si>
+    <t>от 2000 руб.</t>
+  </si>
+  <si>
+    <t>Составление актов приемки выполненных работ по форме КС-2 и КС-3 (бесплатно при заказе смет у нас)</t>
+  </si>
+  <si>
+    <t>3. Минимальная стоимость составления смет составляет 2000 руб – для базисно-индексного метода, 3000 руб – для ресурсного метода;</t>
+  </si>
+  <si>
+    <t>2. Локальные сметы составляются с использованием Федеральной сметно-нормативной базы (ФЕР, ГЭСН -2001 в ред. 2017 г. с изм. 1) и Территориальной сметно-нормативной базы (ТЕР – 2001). По запросу возможно составление проектно-сметной документации в базах других регионов.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -276,11 +247,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -289,9 +286,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -302,6 +296,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -310,6 +307,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -320,6 +330,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -368,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,7 +416,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,13 +650,13 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -652,388 +665,289 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="4" t="s">
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>5</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>7</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>20</v>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>10</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>8</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>9</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>10</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>13</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>43</v>
+      <c r="A42" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
